--- a/intro_to_ai/HW1/Book1.xlsx
+++ b/intro_to_ai/HW1/Book1.xlsx
@@ -1,171 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidal\Desktop\ProgramLearn\intro_to_ai\HW1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9AA41-309F-4E95-BE83-76CE6A811585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>selectBest</t>
-  </si>
-  <si>
-    <t>train accuracy</t>
-  </si>
-  <si>
-    <t>test accuracy</t>
-  </si>
-  <si>
-    <t>test false pos</t>
-  </si>
-  <si>
-    <t>test false neg</t>
   </si>
   <si>
     <t>custom</t>
   </si>
   <si>
-    <t>加總</t>
+    <t xml:space="preserve">train accuracy</t>
   </si>
   <si>
-    <t>平均值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">train false pos</t>
   </si>
   <si>
-    <t>計算加總</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">train false neg</t>
   </si>
   <si>
-    <t>計數</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">test accuracy</t>
   </si>
   <si>
-    <t>method 1 T = 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">test false pos</t>
   </si>
   <si>
-    <t>method 1 T = 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">test false neg</t>
   </si>
   <si>
-    <t>method 1 T = 3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>200張</t>
   </si>
   <si>
-    <t>method 1 T = 4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">train data accuracy</t>
   </si>
   <si>
-    <t>method 1 T = 5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">test data accuracy</t>
   </si>
   <si>
-    <t>method 1 T = 6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 1</t>
   </si>
   <si>
-    <t>method 1 T = 7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 2</t>
   </si>
   <si>
-    <t>method 1 T = 8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 3</t>
   </si>
   <si>
-    <t>method 1 T = 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 4</t>
   </si>
   <si>
-    <t>method 1 T = 10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 5</t>
   </si>
   <si>
-    <t>train data accuracy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 6</t>
   </si>
   <si>
-    <t>test data accuracy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 7</t>
   </si>
   <si>
-    <r>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 8</t>
   </si>
   <si>
-    <t>train false pos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 9</t>
   </si>
   <si>
-    <t>train false neg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">method 1 T = 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="160" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,47 +107,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -269,6 +152,47 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -298,83 +222,77 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="160" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="160" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="160" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <border>
+        <left style="none"/>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -382,53 +300,16 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0.0%"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.0%"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="160" formatCode="0.0%"/>
+      <alignment horizontal="right" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -441,8 +322,9 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -450,62 +332,29 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
+      <numFmt numFmtId="160" formatCode="0.0%"/>
+      <alignment horizontal="right" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <border>
+        <left style="thin">
           <color auto="1"/>
-        </right>
+        </left>
+        <right style="none"/>
         <top style="thin">
           <color auto="1"/>
         </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -514,20 +363,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -542,7 +388,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -555,19 +401,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US"/>
               <a:t>Accuracy</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t> for each Iteration</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -579,7 +429,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -610,12 +460,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>train accuracy</c:v>
+                  <c:v xml:space="preserve">train accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -627,7 +480,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -697,7 +553,7 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88500000000000001</c:v>
+                  <c:v>0.885</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.89</c:v>
@@ -712,33 +568,31 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AA3-4582-A1BC-68C0F51BC424}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>test accuracy</c:v>
+                  <c:v xml:space="preserve">test accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -750,7 +604,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -803,7 +660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -817,7 +674,7 @@
                   <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.54</c:v>
@@ -826,34 +683,30 @@
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54500000000000004</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59499999999999997</c:v>
+                  <c:v>0.595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AA3-4582-A1BC-68C0F51BC424}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
@@ -874,7 +727,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -887,15 +740,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Iteration</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -907,7 +764,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -927,7 +784,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -945,7 +805,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -971,12 +831,15 @@
         <c:axId val="1766417599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
+          <c:min val="0.40000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -996,7 +859,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1009,15 +872,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Accuracy</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1029,7 +896,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1049,7 +916,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
@@ -1061,7 +931,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1080,7 +950,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1090,8 +963,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1103,7 +980,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1121,16 +998,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -1157,7 +1034,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1215,7 +1092,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1227,7 +1104,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1238,16 +1118,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -1261,7 +1144,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1273,7 +1156,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1285,7 +1168,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -1298,7 +1184,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -1332,7 +1218,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1352,7 +1241,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1360,7 +1252,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1370,7 +1261,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1389,7 +1283,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1401,7 +1298,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1410,7 +1307,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="65000"/>
@@ -1434,7 +1334,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1453,7 +1356,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1472,7 +1378,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -1486,7 +1395,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1505,7 +1417,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1524,7 +1439,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1543,7 +1461,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1565,9 +1486,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1575,7 +1496,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1593,7 +1514,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1602,7 +1523,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1624,7 +1548,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1635,7 +1559,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1654,7 +1581,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1663,7 +1590,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -1687,7 +1617,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1696,24 +1626,28 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>163829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -1721,16 +1655,12 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFDA350-CC91-0C5E-BB08-71D03465784F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1746,61 +1676,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36194</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289559</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43098F45-0254-8C4F-21DA-C3A951C04A0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="圖片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5143500" y="2529840"/>
-          <a:ext cx="4099560" cy="1920240"/>
+          <a:off x="645794" y="5657849"/>
+          <a:ext cx="3625214" cy="1983104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1809,19 +1715,302 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FB66C83-4FF4-4EF3-BE8C-A6C4D6EC4418}" name="表格3" displayName="表格3" ref="L15:N25" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="L15:N25" xr:uid="{5FB66C83-4FF4-4EF3-BE8C-A6C4D6EC4418}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表格3" ref="L15:N25">
+  <autoFilter ref="L15:N25"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F9DDDEC-060D-4C05-9A3B-6691E8F54005}" name="200張" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CD414D8D-ED81-48C8-8FF1-159A929BA71E}" name="train data accuracy" dataDxfId="2" dataCellStyle="百分比"/>
-    <tableColumn id="3" xr3:uid="{D9BF91AF-B492-4528-9473-8DDCC98A473C}" name="test data accuracy" dataDxfId="1" dataCellStyle="百分比"/>
+    <tableColumn id="1" name="200張" dataDxfId="0"/>
+    <tableColumn id="2" name="train data accuracy" dataDxfId="1"/>
+    <tableColumn id="3" name="test data accuracy" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -2024,38 +2213,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.69921875" bestFit="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.09765625" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
-    <col min="15" max="15" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" min="2" max="2" width="12.69921875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="12.19921875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="12.796875"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="12.8984375"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="12.19921875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="12.296875"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="12.796875"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="12.19921875"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="12.796875"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="12.57421875"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" width="14.28125"/>
+    <col customWidth="1" min="13" max="13" width="19.09765625"/>
+    <col customWidth="1" min="14" max="14" width="18.5"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" width="17.19921875"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" width="16.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2063,64 +2250,70 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>24</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.48</v>
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.47999999999999998</v>
       </c>
       <c r="F3" s="1">
-        <v>0.49</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="G3" s="1">
         <v>0.55000000000000004</v>
@@ -2129,30 +2322,42 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.51</v>
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.51000000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>0.46</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="O3" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.48</v>
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.47999999999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.49</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="G4" s="1">
         <v>0.55000000000000004</v>
@@ -2161,62 +2366,86 @@
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="K4" s="1">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="K4">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.57999999999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>0.46</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="O4" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.88</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.53</v>
+      <c r="C5">
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.53000000000000003</v>
       </c>
       <c r="F5" s="1">
-        <v>0.48</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="G5" s="1">
-        <v>0.46</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="K5" s="1">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.02</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.61499999999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>0.47</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="O5" s="1">
-        <v>0.3</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="C6" s="1">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.47499999999999998</v>
       </c>
       <c r="F6" s="1">
-        <v>0.49</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="G6" s="1">
         <v>0.56000000000000005</v>
@@ -2227,63 +2456,87 @@
       <c r="J6" s="1">
         <v>0.88</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
+        <v>0.16</v>
+      </c>
+      <c r="L6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.58499999999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>0.32</v>
+        <v>0.32000000000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.51</v>
+        <v>0.51000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.54</v>
+      <c r="C7">
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.54000000000000004</v>
       </c>
       <c r="F7" s="1">
-        <v>0.49</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.43</v>
+        <v>0.42999999999999999</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="K7" s="1">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.02</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>0.27</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>0.59</v>
+        <v>0.58999999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.51</v>
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.22</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.51000000000000001</v>
       </c>
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
       <c r="G8" s="1">
-        <v>0.48</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
@@ -2291,31 +2544,43 @@
       <c r="J8" s="1">
         <v>0.93500000000000005</v>
       </c>
-      <c r="K8" s="1">
-        <v>0.6</v>
+      <c r="K8">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.59999999999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>0.17</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="O8" s="1">
         <v>0.63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="1">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.54500000000000004</v>
       </c>
       <c r="F9" s="1">
-        <v>0.52</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="G9" s="1">
-        <v>0.39</v>
+        <v>0.39000000000000001</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
@@ -2323,60 +2588,84 @@
       <c r="J9" s="1">
         <v>0.95499999999999996</v>
       </c>
-      <c r="K9" s="1">
-        <v>0.69</v>
+      <c r="K9">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.68999999999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>0.26</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.36</v>
+        <v>0.35999999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="C10" s="1">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F10" s="1">
-        <v>0.47</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="G10" s="1">
-        <v>0.43</v>
+        <v>0.42999999999999999</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="K10" s="1">
+        <v>0.96999999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.02</v>
+      </c>
+      <c r="L10">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.60499999999999998</v>
       </c>
       <c r="N10" s="1">
         <v>0.13</v>
       </c>
       <c r="O10" s="1">
-        <v>0.66</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="1">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.57499999999999996</v>
       </c>
       <c r="F11" s="1">
-        <v>0.48</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="G11" s="1">
         <v>0.37</v>
@@ -2385,51 +2674,69 @@
         <v>9</v>
       </c>
       <c r="J11" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="K11" s="1">
+        <v>0.98999999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.71499999999999997</v>
       </c>
       <c r="N11" s="1">
         <v>0.11</v>
       </c>
       <c r="O11" s="1">
-        <v>0.46</v>
+        <v>0.46000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.59499999999999997</v>
       </c>
       <c r="F12" s="1">
-        <v>0.45</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.36</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.72</v>
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.71999999999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>0.09</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="O12" s="1">
-        <v>0.47</v>
+        <v>0.46999999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2442,7 +2749,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2450,12 +2757,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2463,21 +2768,19 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>21</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2485,21 +2788,19 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.48</v>
+      <c r="L16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.47999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2507,18 +2808,17 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="L17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0.48</v>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.47999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2526,18 +2826,17 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>0.88</v>
       </c>
-      <c r="N18" s="4">
-        <v>0.53</v>
+      <c r="N18" s="8">
+        <v>0.53000000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2545,18 +2844,17 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="L19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="N19" s="8">
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2564,18 +2862,17 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="L20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="L20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="7">
         <v>0.88500000000000001</v>
       </c>
-      <c r="N20" s="4">
-        <v>0.54</v>
+      <c r="N20" s="8">
+        <v>0.54000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2583,18 +2880,17 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="L21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.51</v>
+      <c r="L21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.51000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2602,18 +2898,17 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="L22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="L22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="N22" s="8">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2621,18 +2916,17 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="L23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="L23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="N23" s="8">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2640,18 +2934,17 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="L24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="L24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="N24" s="8">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2660,17 +2953,17 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="L25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="9">
+      <c r="L25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="10">
         <v>0.91500000000000004</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="11">
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2680,7 +2973,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2690,7 +2983,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2703,7 +2996,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2717,12 +3010,13 @@
       <c r="K29" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>